--- a/fuentes/contenidos/grado06/guion04/ESCALETA_LE_06_04_CO.xlsx
+++ b/fuentes/contenidos/grado06/guion04/ESCALETA_LE_06_04_CO.xlsx
@@ -1,29 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cris\Documents\CRISTIAN\PLANETA\NUEVO\ESCALETAS\Escaletas\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja2" sheetId="2" r:id="rId1"/>
-    <sheet name="DATOS" sheetId="1" state="hidden" r:id="rId2"/>
+    <sheet name="DATOS" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja2!$A$1:$U$2</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="752" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="758" uniqueCount="301">
   <si>
     <t>Asignatura</t>
   </si>
@@ -390,9 +385,6 @@
   </si>
   <si>
     <t>m101A</t>
-  </si>
-  <si>
-    <t>LE_06_04_C0</t>
   </si>
   <si>
     <t>El cuento</t>
@@ -950,6 +942,9 @@
   </si>
   <si>
     <t>DBA1. La idea es establecer algunas funciones o características de las convenciones, presentar algunas y solicitar a los estudiantes que las organicen en los contenedores.</t>
+  </si>
+  <si>
+    <t>LE_06_04_CO</t>
   </si>
 </sst>
 </file>
@@ -1222,16 +1217,34 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1271,24 +1284,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1351,7 +1346,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1386,7 +1381,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1599,7 +1594,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D30" sqref="D30"/>
+      <selection pane="bottomLeft" activeCell="P41" sqref="P41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1617,7 +1612,7 @@
     <col min="11" max="11" width="13.28515625" customWidth="1"/>
     <col min="12" max="12" width="17.42578125" customWidth="1"/>
     <col min="13" max="14" width="9.28515625" customWidth="1"/>
-    <col min="15" max="15" width="255.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11" style="1" customWidth="1"/>
     <col min="16" max="16" width="16.5703125" style="1" customWidth="1"/>
     <col min="17" max="17" width="20.42578125" style="1" customWidth="1"/>
     <col min="18" max="18" width="23" bestFit="1" customWidth="1"/>
@@ -1627,112 +1622,112 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="25" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="46" t="s">
+      <c r="C1" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="37" t="s">
+      <c r="D1" s="43" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="35" t="s">
+      <c r="E1" s="41" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="31" t="s">
+      <c r="F1" s="39" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="39" t="s">
+      <c r="G1" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="31" t="s">
+      <c r="H1" s="39" t="s">
         <v>113</v>
       </c>
-      <c r="I1" s="31" t="s">
+      <c r="I1" s="39" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="43" t="s">
+      <c r="J1" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="41" t="s">
+      <c r="K1" s="47" t="s">
         <v>108</v>
       </c>
-      <c r="L1" s="39" t="s">
+      <c r="L1" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="45" t="s">
+      <c r="M1" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="45"/>
-      <c r="O1" s="33" t="s">
+      <c r="N1" s="51"/>
+      <c r="O1" s="31" t="s">
         <v>109</v>
       </c>
-      <c r="P1" s="33" t="s">
+      <c r="P1" s="31" t="s">
         <v>114</v>
       </c>
-      <c r="Q1" s="48" t="s">
+      <c r="Q1" s="33" t="s">
         <v>85</v>
       </c>
-      <c r="R1" s="52" t="s">
+      <c r="R1" s="37" t="s">
         <v>86</v>
       </c>
-      <c r="S1" s="48" t="s">
+      <c r="S1" s="33" t="s">
         <v>87</v>
       </c>
-      <c r="T1" s="50" t="s">
+      <c r="T1" s="35" t="s">
         <v>88</v>
       </c>
-      <c r="U1" s="48" t="s">
+      <c r="U1" s="33" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:21" s="25" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="38"/>
-      <c r="B2" s="36"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="42"/>
-      <c r="L2" s="40"/>
+      <c r="A2" s="44"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="48"/>
+      <c r="L2" s="46"/>
       <c r="M2" s="26" t="s">
         <v>90</v>
       </c>
       <c r="N2" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="O2" s="34"/>
-      <c r="P2" s="34"/>
-      <c r="Q2" s="49"/>
-      <c r="R2" s="53"/>
-      <c r="S2" s="49"/>
-      <c r="T2" s="51"/>
-      <c r="U2" s="49"/>
+      <c r="O2" s="32"/>
+      <c r="P2" s="32"/>
+      <c r="Q2" s="34"/>
+      <c r="R2" s="38"/>
+      <c r="S2" s="34"/>
+      <c r="T2" s="36"/>
+      <c r="U2" s="34"/>
     </row>
     <row r="3" spans="1:21" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>16</v>
       </c>
       <c r="B3" s="13" t="s">
+        <v>300</v>
+      </c>
+      <c r="C3" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="D3" s="15" t="s">
         <v>123</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>124</v>
       </c>
       <c r="E3" s="19"/>
       <c r="F3" s="20"/>
       <c r="G3" s="16" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H3" s="9">
         <v>1</v>
@@ -1741,7 +1736,7 @@
         <v>20</v>
       </c>
       <c r="J3" s="17" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="K3" s="7" t="s">
         <v>20</v>
@@ -1754,7 +1749,7 @@
         <v>36</v>
       </c>
       <c r="O3" s="21" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="P3" s="21" t="s">
         <v>19</v>
@@ -1763,16 +1758,16 @@
         <v>6</v>
       </c>
       <c r="R3" s="23" t="s">
+        <v>151</v>
+      </c>
+      <c r="S3" s="22" t="s">
         <v>152</v>
       </c>
-      <c r="S3" s="22" t="s">
+      <c r="T3" s="24" t="s">
         <v>153</v>
       </c>
-      <c r="T3" s="24" t="s">
+      <c r="U3" s="22" t="s">
         <v>154</v>
-      </c>
-      <c r="U3" s="22" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -1780,18 +1775,18 @@
         <v>16</v>
       </c>
       <c r="B4" s="13" t="s">
+        <v>300</v>
+      </c>
+      <c r="C4" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="D4" s="15" t="s">
         <v>123</v>
-      </c>
-      <c r="D4" s="15" t="s">
-        <v>124</v>
       </c>
       <c r="E4" s="13"/>
       <c r="F4" s="9"/>
       <c r="G4" s="16" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H4" s="9">
         <v>2</v>
@@ -1800,7 +1795,7 @@
         <v>20</v>
       </c>
       <c r="J4" s="17" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>20</v>
@@ -1813,7 +1808,7 @@
         <v>35</v>
       </c>
       <c r="O4" s="9" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="P4" s="9" t="s">
         <v>19</v>
@@ -1822,16 +1817,16 @@
         <v>6</v>
       </c>
       <c r="R4" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="S4" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="S4" s="10" t="s">
-        <v>153</v>
-      </c>
       <c r="T4" s="12" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="U4" s="10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -1839,18 +1834,18 @@
         <v>16</v>
       </c>
       <c r="B5" s="13" t="s">
+        <v>300</v>
+      </c>
+      <c r="C5" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="D5" s="15" t="s">
         <v>123</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>124</v>
       </c>
       <c r="E5" s="13"/>
       <c r="F5" s="9"/>
       <c r="G5" s="16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H5" s="9">
         <v>3</v>
@@ -1859,7 +1854,7 @@
         <v>20</v>
       </c>
       <c r="J5" s="17" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>20</v>
@@ -1872,7 +1867,7 @@
         <v>24</v>
       </c>
       <c r="O5" s="9" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="P5" s="9" t="s">
         <v>19</v>
@@ -1881,16 +1876,16 @@
         <v>6</v>
       </c>
       <c r="R5" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="S5" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="S5" s="10" t="s">
-        <v>153</v>
-      </c>
       <c r="T5" s="12" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="U5" s="10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="6" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -1898,18 +1893,18 @@
         <v>16</v>
       </c>
       <c r="B6" s="13" t="s">
+        <v>300</v>
+      </c>
+      <c r="C6" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="D6" s="15" t="s">
         <v>123</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>124</v>
       </c>
       <c r="E6" s="13"/>
       <c r="F6" s="9"/>
       <c r="G6" s="16" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H6" s="9">
         <v>4</v>
@@ -1918,7 +1913,7 @@
         <v>20</v>
       </c>
       <c r="J6" s="17" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>20</v>
@@ -1931,7 +1926,7 @@
         <v>45</v>
       </c>
       <c r="O6" s="9" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="P6" s="9" t="s">
         <v>19</v>
@@ -1940,16 +1935,16 @@
         <v>6</v>
       </c>
       <c r="R6" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="S6" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="S6" s="10" t="s">
-        <v>153</v>
-      </c>
       <c r="T6" s="12" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="U6" s="10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="7" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -1957,18 +1952,18 @@
         <v>16</v>
       </c>
       <c r="B7" s="13" t="s">
+        <v>300</v>
+      </c>
+      <c r="C7" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="D7" s="15" t="s">
         <v>123</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>124</v>
       </c>
       <c r="E7" s="13"/>
       <c r="F7" s="9"/>
       <c r="G7" s="16" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H7" s="9">
         <v>5</v>
@@ -1977,7 +1972,7 @@
         <v>20</v>
       </c>
       <c r="J7" s="17" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>20</v>
@@ -1990,7 +1985,7 @@
         <v>33</v>
       </c>
       <c r="O7" s="9" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P7" s="9" t="s">
         <v>19</v>
@@ -1999,16 +1994,16 @@
         <v>6</v>
       </c>
       <c r="R7" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="S7" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="S7" s="10" t="s">
-        <v>153</v>
-      </c>
       <c r="T7" s="12" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="U7" s="10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="8" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2016,18 +2011,18 @@
         <v>16</v>
       </c>
       <c r="B8" s="13" t="s">
+        <v>300</v>
+      </c>
+      <c r="C8" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="D8" s="15" t="s">
         <v>123</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>124</v>
       </c>
       <c r="E8" s="13"/>
       <c r="F8" s="9"/>
       <c r="G8" s="16" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H8" s="9">
         <v>6</v>
@@ -2036,7 +2031,7 @@
         <v>20</v>
       </c>
       <c r="J8" s="17" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>20</v>
@@ -2049,7 +2044,7 @@
         <v>118</v>
       </c>
       <c r="O8" s="9" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="P8" s="9" t="s">
         <v>19</v>
@@ -2058,16 +2053,16 @@
         <v>6</v>
       </c>
       <c r="R8" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="S8" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="S8" s="10" t="s">
-        <v>153</v>
-      </c>
       <c r="T8" s="12" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="U8" s="10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="9" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2075,18 +2070,18 @@
         <v>16</v>
       </c>
       <c r="B9" s="13" t="s">
+        <v>300</v>
+      </c>
+      <c r="C9" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="C9" s="14" t="s">
-        <v>123</v>
-      </c>
       <c r="D9" s="15" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E9" s="13"/>
       <c r="F9" s="9"/>
       <c r="G9" s="16" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H9" s="9">
         <v>7</v>
@@ -2095,7 +2090,7 @@
         <v>19</v>
       </c>
       <c r="J9" s="17" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>20</v>
@@ -2108,7 +2103,7 @@
       </c>
       <c r="N9" s="8"/>
       <c r="O9" s="9" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="P9" s="9" t="s">
         <v>19</v>
@@ -2117,16 +2112,16 @@
         <v>6</v>
       </c>
       <c r="R9" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="S9" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="S9" s="10" t="s">
+      <c r="T9" s="12" t="s">
         <v>176</v>
       </c>
-      <c r="T9" s="12" t="s">
+      <c r="U9" s="10" t="s">
         <v>177</v>
-      </c>
-      <c r="U9" s="10" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="10" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2134,20 +2129,20 @@
         <v>16</v>
       </c>
       <c r="B10" s="13" t="s">
+        <v>300</v>
+      </c>
+      <c r="C10" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="C10" s="14" t="s">
-        <v>123</v>
-      </c>
       <c r="D10" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="E10" s="13" t="s">
         <v>125</v>
-      </c>
-      <c r="E10" s="13" t="s">
-        <v>126</v>
       </c>
       <c r="F10" s="9"/>
       <c r="G10" s="16" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H10" s="9">
         <v>8</v>
@@ -2156,7 +2151,7 @@
         <v>20</v>
       </c>
       <c r="J10" s="17" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>20</v>
@@ -2169,7 +2164,7 @@
         <v>28</v>
       </c>
       <c r="O10" s="9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="P10" s="9" t="s">
         <v>19</v>
@@ -2178,16 +2173,16 @@
         <v>6</v>
       </c>
       <c r="R10" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="S10" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="S10" s="10" t="s">
-        <v>153</v>
-      </c>
       <c r="T10" s="12" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="U10" s="10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="11" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2195,20 +2190,20 @@
         <v>16</v>
       </c>
       <c r="B11" s="13" t="s">
+        <v>300</v>
+      </c>
+      <c r="C11" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="C11" s="14" t="s">
-        <v>123</v>
-      </c>
       <c r="D11" s="15" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F11" s="9"/>
       <c r="G11" s="16" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H11" s="9">
         <v>9</v>
@@ -2217,7 +2212,7 @@
         <v>19</v>
       </c>
       <c r="J11" s="17" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>20</v>
@@ -2230,7 +2225,7 @@
         <v>44</v>
       </c>
       <c r="O11" s="9" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="P11" s="9" t="s">
         <v>19</v>
@@ -2239,16 +2234,16 @@
         <v>6</v>
       </c>
       <c r="R11" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="S11" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="S11" s="10" t="s">
-        <v>153</v>
-      </c>
       <c r="T11" s="12" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="U11" s="10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="12" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2256,20 +2251,20 @@
         <v>16</v>
       </c>
       <c r="B12" s="13" t="s">
+        <v>300</v>
+      </c>
+      <c r="C12" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="C12" s="14" t="s">
-        <v>123</v>
-      </c>
       <c r="D12" s="15" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F12" s="9"/>
       <c r="G12" s="16" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H12" s="9">
         <v>10</v>
@@ -2278,7 +2273,7 @@
         <v>20</v>
       </c>
       <c r="J12" s="17" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>20</v>
@@ -2291,7 +2286,7 @@
       </c>
       <c r="N12" s="8"/>
       <c r="O12" s="9" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="P12" s="9" t="s">
         <v>19</v>
@@ -2300,16 +2295,16 @@
         <v>6</v>
       </c>
       <c r="R12" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="S12" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="S12" s="10" t="s">
-        <v>176</v>
-      </c>
       <c r="T12" s="12" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="U12" s="10" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="13" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2317,20 +2312,20 @@
         <v>16</v>
       </c>
       <c r="B13" s="13" t="s">
+        <v>300</v>
+      </c>
+      <c r="C13" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="C13" s="14" t="s">
-        <v>123</v>
-      </c>
       <c r="D13" s="15" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F13" s="9"/>
       <c r="G13" s="16" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H13" s="9">
         <v>11</v>
@@ -2339,7 +2334,7 @@
         <v>20</v>
       </c>
       <c r="J13" s="17" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>20</v>
@@ -2352,7 +2347,7 @@
         <v>26</v>
       </c>
       <c r="O13" s="9" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="P13" s="9" t="s">
         <v>19</v>
@@ -2361,16 +2356,16 @@
         <v>6</v>
       </c>
       <c r="R13" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="S13" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="S13" s="10" t="s">
-        <v>153</v>
-      </c>
       <c r="T13" s="12" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="U13" s="10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="14" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2378,20 +2373,20 @@
         <v>16</v>
       </c>
       <c r="B14" s="13" t="s">
+        <v>300</v>
+      </c>
+      <c r="C14" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="C14" s="14" t="s">
-        <v>123</v>
-      </c>
       <c r="D14" s="15" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F14" s="9"/>
       <c r="G14" s="16" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H14" s="9">
         <v>12</v>
@@ -2400,7 +2395,7 @@
         <v>19</v>
       </c>
       <c r="J14" s="17" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>20</v>
@@ -2413,7 +2408,7 @@
       </c>
       <c r="N14" s="8"/>
       <c r="O14" s="9" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="P14" s="9" t="s">
         <v>20</v>
@@ -2422,16 +2417,16 @@
         <v>6</v>
       </c>
       <c r="R14" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="S14" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="S14" s="10" t="s">
-        <v>176</v>
-      </c>
       <c r="T14" s="12" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="U14" s="10" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="15" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2439,20 +2434,20 @@
         <v>16</v>
       </c>
       <c r="B15" s="13" t="s">
+        <v>300</v>
+      </c>
+      <c r="C15" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="C15" s="14" t="s">
-        <v>123</v>
-      </c>
       <c r="D15" s="15" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F15" s="9"/>
       <c r="G15" s="16" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H15" s="9">
         <v>13</v>
@@ -2461,7 +2456,7 @@
         <v>20</v>
       </c>
       <c r="J15" s="17" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="K15" s="7" t="s">
         <v>20</v>
@@ -2474,7 +2469,7 @@
         <v>121</v>
       </c>
       <c r="O15" s="9" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="P15" s="9" t="s">
         <v>19</v>
@@ -2483,16 +2478,16 @@
         <v>6</v>
       </c>
       <c r="R15" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="S15" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="S15" s="10" t="s">
-        <v>153</v>
-      </c>
       <c r="T15" s="12" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="U15" s="10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="16" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2500,18 +2495,18 @@
         <v>16</v>
       </c>
       <c r="B16" s="13" t="s">
+        <v>300</v>
+      </c>
+      <c r="C16" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="C16" s="14" t="s">
-        <v>123</v>
-      </c>
       <c r="D16" s="15" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E16" s="13"/>
       <c r="F16" s="9"/>
       <c r="G16" s="16" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H16" s="9">
         <v>14</v>
@@ -2520,7 +2515,7 @@
         <v>19</v>
       </c>
       <c r="J16" s="17" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>20</v>
@@ -2533,7 +2528,7 @@
       </c>
       <c r="N16" s="8"/>
       <c r="O16" s="9" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="P16" s="9" t="s">
         <v>19</v>
@@ -2542,16 +2537,16 @@
         <v>6</v>
       </c>
       <c r="R16" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="S16" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="S16" s="10" t="s">
-        <v>176</v>
-      </c>
       <c r="T16" s="12" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="U16" s="10" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="17" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2559,18 +2554,18 @@
         <v>16</v>
       </c>
       <c r="B17" s="13" t="s">
+        <v>300</v>
+      </c>
+      <c r="C17" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="C17" s="14" t="s">
-        <v>123</v>
-      </c>
       <c r="D17" s="15" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E17" s="13"/>
       <c r="F17" s="9"/>
       <c r="G17" s="16" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H17" s="9">
         <v>15</v>
@@ -2579,7 +2574,7 @@
         <v>20</v>
       </c>
       <c r="J17" s="17" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>20</v>
@@ -2592,7 +2587,7 @@
         <v>32</v>
       </c>
       <c r="O17" s="9" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="P17" s="9" t="s">
         <v>19</v>
@@ -2601,16 +2596,16 @@
         <v>6</v>
       </c>
       <c r="R17" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="S17" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="S17" s="10" t="s">
-        <v>153</v>
-      </c>
       <c r="T17" s="12" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="U17" s="10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="18" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2618,18 +2613,18 @@
         <v>16</v>
       </c>
       <c r="B18" s="13" t="s">
+        <v>300</v>
+      </c>
+      <c r="C18" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="C18" s="14" t="s">
-        <v>123</v>
-      </c>
       <c r="D18" s="15" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E18" s="13"/>
       <c r="F18" s="9"/>
       <c r="G18" s="16" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H18" s="9">
         <v>16</v>
@@ -2638,7 +2633,7 @@
         <v>20</v>
       </c>
       <c r="J18" s="17" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="K18" s="7" t="s">
         <v>20</v>
@@ -2651,7 +2646,7 @@
         <v>44</v>
       </c>
       <c r="O18" s="9" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="P18" s="9" t="s">
         <v>19</v>
@@ -2660,16 +2655,16 @@
         <v>6</v>
       </c>
       <c r="R18" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="S18" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="S18" s="10" t="s">
-        <v>153</v>
-      </c>
       <c r="T18" s="12" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="U18" s="10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="19" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2677,20 +2672,20 @@
         <v>16</v>
       </c>
       <c r="B19" s="13" t="s">
+        <v>300</v>
+      </c>
+      <c r="C19" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="C19" s="14" t="s">
-        <v>123</v>
-      </c>
       <c r="D19" s="15" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F19" s="9"/>
       <c r="G19" s="16" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H19" s="9">
         <v>17</v>
@@ -2699,7 +2694,7 @@
         <v>20</v>
       </c>
       <c r="J19" s="17" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>20</v>
@@ -2712,7 +2707,7 @@
         <v>121</v>
       </c>
       <c r="O19" s="9" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="P19" s="9" t="s">
         <v>19</v>
@@ -2721,16 +2716,16 @@
         <v>6</v>
       </c>
       <c r="R19" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="S19" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="S19" s="10" t="s">
-        <v>153</v>
-      </c>
       <c r="T19" s="12" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="U19" s="10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="20" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2738,18 +2733,18 @@
         <v>16</v>
       </c>
       <c r="B20" s="13" t="s">
+        <v>300</v>
+      </c>
+      <c r="C20" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="C20" s="14" t="s">
-        <v>123</v>
-      </c>
       <c r="D20" s="15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E20" s="13"/>
       <c r="F20" s="9"/>
       <c r="G20" s="16" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H20" s="9">
         <v>18</v>
@@ -2758,7 +2753,7 @@
         <v>19</v>
       </c>
       <c r="J20" s="17" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>20</v>
@@ -2771,7 +2766,7 @@
       </c>
       <c r="N20" s="8"/>
       <c r="O20" s="9" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="P20" s="9" t="s">
         <v>19</v>
@@ -2780,16 +2775,16 @@
         <v>6</v>
       </c>
       <c r="R20" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="S20" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="S20" s="10" t="s">
-        <v>176</v>
-      </c>
       <c r="T20" s="12" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="U20" s="10" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="21" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2797,20 +2792,20 @@
         <v>16</v>
       </c>
       <c r="B21" s="13" t="s">
+        <v>300</v>
+      </c>
+      <c r="C21" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="C21" s="14" t="s">
-        <v>123</v>
-      </c>
       <c r="D21" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="E21" s="13" t="s">
         <v>131</v>
-      </c>
-      <c r="E21" s="13" t="s">
-        <v>132</v>
       </c>
       <c r="F21" s="9"/>
       <c r="G21" s="16" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H21" s="9">
         <v>19</v>
@@ -2819,7 +2814,7 @@
         <v>20</v>
       </c>
       <c r="J21" s="17" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>20</v>
@@ -2832,7 +2827,7 @@
         <v>41</v>
       </c>
       <c r="O21" s="9" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="P21" s="9" t="s">
         <v>19</v>
@@ -2841,16 +2836,16 @@
         <v>6</v>
       </c>
       <c r="R21" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="S21" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="S21" s="10" t="s">
-        <v>153</v>
-      </c>
       <c r="T21" s="12" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="U21" s="10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="22" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2858,20 +2853,20 @@
         <v>16</v>
       </c>
       <c r="B22" s="13" t="s">
+        <v>300</v>
+      </c>
+      <c r="C22" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="C22" s="14" t="s">
-        <v>123</v>
-      </c>
       <c r="D22" s="15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E22" s="13" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F22" s="9"/>
       <c r="G22" s="16" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H22" s="9">
         <v>20</v>
@@ -2880,7 +2875,7 @@
         <v>20</v>
       </c>
       <c r="J22" s="17" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>20</v>
@@ -2893,7 +2888,7 @@
         <v>27</v>
       </c>
       <c r="O22" s="9" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="P22" s="9" t="s">
         <v>19</v>
@@ -2902,16 +2897,16 @@
         <v>6</v>
       </c>
       <c r="R22" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="S22" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="S22" s="10" t="s">
-        <v>153</v>
-      </c>
       <c r="T22" s="12" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="U22" s="10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="23" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2919,20 +2914,20 @@
         <v>16</v>
       </c>
       <c r="B23" s="13" t="s">
+        <v>300</v>
+      </c>
+      <c r="C23" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="C23" s="14" t="s">
-        <v>123</v>
-      </c>
       <c r="D23" s="15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E23" s="13" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F23" s="9"/>
       <c r="G23" s="16" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H23" s="9">
         <v>21</v>
@@ -2941,7 +2936,7 @@
         <v>20</v>
       </c>
       <c r="J23" s="17" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>20</v>
@@ -2954,7 +2949,7 @@
         <v>121</v>
       </c>
       <c r="O23" s="9" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="P23" s="9" t="s">
         <v>19</v>
@@ -2963,16 +2958,16 @@
         <v>6</v>
       </c>
       <c r="R23" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="S23" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="S23" s="10" t="s">
-        <v>153</v>
-      </c>
       <c r="T23" s="12" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="U23" s="10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="24" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2980,18 +2975,18 @@
         <v>16</v>
       </c>
       <c r="B24" s="13" t="s">
+        <v>300</v>
+      </c>
+      <c r="C24" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="C24" s="14" t="s">
-        <v>123</v>
-      </c>
       <c r="D24" s="15" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E24" s="13"/>
       <c r="F24" s="9"/>
       <c r="G24" s="16" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H24" s="9">
         <v>22</v>
@@ -3000,7 +2995,7 @@
         <v>19</v>
       </c>
       <c r="J24" s="17" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="K24" s="7" t="s">
         <v>20</v>
@@ -3013,7 +3008,7 @@
       </c>
       <c r="N24" s="8"/>
       <c r="O24" s="9" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="P24" s="9" t="s">
         <v>19</v>
@@ -3022,16 +3017,16 @@
         <v>6</v>
       </c>
       <c r="R24" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="S24" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="S24" s="10" t="s">
-        <v>176</v>
-      </c>
       <c r="T24" s="12" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="U24" s="10" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="25" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -3039,18 +3034,18 @@
         <v>16</v>
       </c>
       <c r="B25" s="13" t="s">
+        <v>300</v>
+      </c>
+      <c r="C25" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="C25" s="14" t="s">
-        <v>123</v>
-      </c>
       <c r="D25" s="15" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E25" s="13"/>
       <c r="F25" s="9"/>
       <c r="G25" s="16" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H25" s="9">
         <v>23</v>
@@ -3059,7 +3054,7 @@
         <v>19</v>
       </c>
       <c r="J25" s="17" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>20</v>
@@ -3072,7 +3067,7 @@
       </c>
       <c r="N25" s="8"/>
       <c r="O25" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="P25" s="9" t="s">
         <v>19</v>
@@ -3081,16 +3076,16 @@
         <v>6</v>
       </c>
       <c r="R25" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="S25" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="S25" s="10" t="s">
-        <v>176</v>
-      </c>
       <c r="T25" s="12" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="U25" s="10" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="26" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -3098,20 +3093,20 @@
         <v>16</v>
       </c>
       <c r="B26" s="13" t="s">
+        <v>300</v>
+      </c>
+      <c r="C26" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="C26" s="14" t="s">
-        <v>123</v>
-      </c>
       <c r="D26" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="E26" s="13" t="s">
         <v>135</v>
-      </c>
-      <c r="E26" s="13" t="s">
-        <v>136</v>
       </c>
       <c r="F26" s="9"/>
       <c r="G26" s="16" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H26" s="9">
         <v>24</v>
@@ -3120,7 +3115,7 @@
         <v>20</v>
       </c>
       <c r="J26" s="17" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>20</v>
@@ -3133,7 +3128,7 @@
         <v>118</v>
       </c>
       <c r="O26" s="9" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="P26" s="9" t="s">
         <v>19</v>
@@ -3142,16 +3137,16 @@
         <v>6</v>
       </c>
       <c r="R26" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="S26" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="S26" s="10" t="s">
-        <v>153</v>
-      </c>
       <c r="T26" s="12" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="U26" s="10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="27" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -3159,20 +3154,20 @@
         <v>16</v>
       </c>
       <c r="B27" s="13" t="s">
+        <v>300</v>
+      </c>
+      <c r="C27" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="C27" s="14" t="s">
-        <v>123</v>
-      </c>
       <c r="D27" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="E27" s="13" t="s">
         <v>135</v>
-      </c>
-      <c r="E27" s="13" t="s">
-        <v>136</v>
       </c>
       <c r="F27" s="9"/>
       <c r="G27" s="16" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H27" s="9">
         <v>25</v>
@@ -3181,7 +3176,7 @@
         <v>20</v>
       </c>
       <c r="J27" s="17" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="K27" s="7" t="s">
         <v>20</v>
@@ -3194,7 +3189,7 @@
         <v>40</v>
       </c>
       <c r="O27" s="9" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="P27" s="9" t="s">
         <v>19</v>
@@ -3203,16 +3198,16 @@
         <v>6</v>
       </c>
       <c r="R27" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="S27" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="S27" s="10" t="s">
-        <v>153</v>
-      </c>
       <c r="T27" s="12" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="U27" s="10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="28" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -3220,20 +3215,20 @@
         <v>16</v>
       </c>
       <c r="B28" s="13" t="s">
+        <v>300</v>
+      </c>
+      <c r="C28" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="C28" s="14" t="s">
-        <v>123</v>
-      </c>
       <c r="D28" s="15" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E28" s="13" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F28" s="9"/>
       <c r="G28" s="16" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H28" s="9">
         <v>26</v>
@@ -3242,7 +3237,7 @@
         <v>20</v>
       </c>
       <c r="J28" s="17" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>20</v>
@@ -3255,7 +3250,7 @@
         <v>40</v>
       </c>
       <c r="O28" s="9" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="P28" s="9" t="s">
         <v>19</v>
@@ -3264,16 +3259,16 @@
         <v>6</v>
       </c>
       <c r="R28" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="S28" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="S28" s="10" t="s">
-        <v>153</v>
-      </c>
       <c r="T28" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="U28" s="10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="29" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -3281,20 +3276,20 @@
         <v>16</v>
       </c>
       <c r="B29" s="13" t="s">
+        <v>300</v>
+      </c>
+      <c r="C29" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="C29" s="14" t="s">
-        <v>123</v>
-      </c>
       <c r="D29" s="15" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E29" s="13" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F29" s="9"/>
       <c r="G29" s="16" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H29" s="9">
         <v>27</v>
@@ -3303,7 +3298,7 @@
         <v>20</v>
       </c>
       <c r="J29" s="17" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>20</v>
@@ -3316,7 +3311,7 @@
         <v>42</v>
       </c>
       <c r="O29" s="9" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="P29" s="9" t="s">
         <v>20</v>
@@ -3325,16 +3320,16 @@
         <v>6</v>
       </c>
       <c r="R29" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="S29" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="S29" s="10" t="s">
-        <v>153</v>
-      </c>
       <c r="T29" s="12" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="U29" s="10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="30" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -3342,20 +3337,20 @@
         <v>16</v>
       </c>
       <c r="B30" s="13" t="s">
+        <v>300</v>
+      </c>
+      <c r="C30" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="C30" s="14" t="s">
-        <v>123</v>
-      </c>
       <c r="D30" s="15" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E30" s="13" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F30" s="9"/>
       <c r="G30" s="16" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H30" s="9">
         <v>28</v>
@@ -3364,7 +3359,7 @@
         <v>20</v>
       </c>
       <c r="J30" s="17" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="K30" s="7" t="s">
         <v>20</v>
@@ -3377,7 +3372,7 @@
         <v>121</v>
       </c>
       <c r="O30" s="9" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="P30" s="9" t="s">
         <v>19</v>
@@ -3386,16 +3381,16 @@
         <v>6</v>
       </c>
       <c r="R30" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="S30" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="S30" s="10" t="s">
-        <v>153</v>
-      </c>
       <c r="T30" s="12" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="U30" s="10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="31" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -3403,18 +3398,18 @@
         <v>16</v>
       </c>
       <c r="B31" s="13" t="s">
+        <v>300</v>
+      </c>
+      <c r="C31" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="C31" s="14" t="s">
-        <v>123</v>
-      </c>
       <c r="D31" s="15" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E31" s="13"/>
       <c r="F31" s="9"/>
       <c r="G31" s="16" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H31" s="9">
         <v>29</v>
@@ -3423,7 +3418,7 @@
         <v>19</v>
       </c>
       <c r="J31" s="17" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="K31" s="7" t="s">
         <v>19</v>
@@ -3434,7 +3429,7 @@
       <c r="M31" s="8"/>
       <c r="N31" s="8"/>
       <c r="O31" s="9" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="P31" s="9" t="s">
         <v>19</v>
@@ -3443,16 +3438,16 @@
         <v>7</v>
       </c>
       <c r="R31" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="S31" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="S31" s="10" t="s">
+      <c r="T31" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="T31" s="12" t="s">
+      <c r="U31" s="10" t="s">
         <v>148</v>
-      </c>
-      <c r="U31" s="10" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="32" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -3460,20 +3455,20 @@
         <v>16</v>
       </c>
       <c r="B32" s="13" t="s">
+        <v>300</v>
+      </c>
+      <c r="C32" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="C32" s="14" t="s">
-        <v>123</v>
-      </c>
       <c r="D32" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="E32" s="13" t="s">
         <v>138</v>
-      </c>
-      <c r="E32" s="13" t="s">
-        <v>139</v>
       </c>
       <c r="F32" s="9"/>
       <c r="G32" s="16" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H32" s="9">
         <v>30</v>
@@ -3482,7 +3477,7 @@
         <v>20</v>
       </c>
       <c r="J32" s="17" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>20</v>
@@ -3495,7 +3490,7 @@
         <v>33</v>
       </c>
       <c r="O32" s="9" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="P32" s="9" t="s">
         <v>19</v>
@@ -3504,16 +3499,16 @@
         <v>6</v>
       </c>
       <c r="R32" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="S32" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="S32" s="10" t="s">
-        <v>153</v>
-      </c>
       <c r="T32" s="12" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="U32" s="10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="33" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -3521,20 +3516,20 @@
         <v>16</v>
       </c>
       <c r="B33" s="13" t="s">
+        <v>300</v>
+      </c>
+      <c r="C33" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="C33" s="14" t="s">
-        <v>123</v>
-      </c>
       <c r="D33" s="15" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E33" s="13" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F33" s="9"/>
       <c r="G33" s="16" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H33" s="9">
         <v>31</v>
@@ -3543,7 +3538,7 @@
         <v>20</v>
       </c>
       <c r="J33" s="17" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="K33" s="7" t="s">
         <v>19</v>
@@ -3554,7 +3549,7 @@
       <c r="M33" s="8"/>
       <c r="N33" s="8"/>
       <c r="O33" s="9" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="P33" s="9" t="s">
         <v>20</v>
@@ -3563,16 +3558,16 @@
         <v>7</v>
       </c>
       <c r="R33" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="S33" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="S33" s="10" t="s">
-        <v>147</v>
-      </c>
       <c r="T33" s="12" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="U33" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="34" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -3580,20 +3575,20 @@
         <v>16</v>
       </c>
       <c r="B34" s="13" t="s">
+        <v>300</v>
+      </c>
+      <c r="C34" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="C34" s="14" t="s">
-        <v>123</v>
-      </c>
       <c r="D34" s="15" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E34" s="13" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F34" s="9"/>
       <c r="G34" s="16" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H34" s="9">
         <v>32</v>
@@ -3602,7 +3597,7 @@
         <v>20</v>
       </c>
       <c r="J34" s="17" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="K34" s="7" t="s">
         <v>20</v>
@@ -3615,7 +3610,7 @@
         <v>121</v>
       </c>
       <c r="O34" s="9" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="P34" s="9" t="s">
         <v>19</v>
@@ -3624,16 +3619,16 @@
         <v>6</v>
       </c>
       <c r="R34" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="S34" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="S34" s="10" t="s">
-        <v>153</v>
-      </c>
       <c r="T34" s="12" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="U34" s="10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="35" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -3641,18 +3636,18 @@
         <v>16</v>
       </c>
       <c r="B35" s="13" t="s">
+        <v>300</v>
+      </c>
+      <c r="C35" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="C35" s="14" t="s">
-        <v>123</v>
-      </c>
       <c r="D35" s="15" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E35" s="13"/>
       <c r="F35" s="9"/>
       <c r="G35" s="16" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H35" s="9">
         <v>33</v>
@@ -3661,7 +3656,7 @@
         <v>20</v>
       </c>
       <c r="J35" s="17" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="K35" s="7" t="s">
         <v>20</v>
@@ -3674,7 +3669,7 @@
         <v>33</v>
       </c>
       <c r="O35" s="9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="P35" s="9" t="s">
         <v>19</v>
@@ -3683,16 +3678,16 @@
         <v>6</v>
       </c>
       <c r="R35" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="S35" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="S35" s="10" t="s">
-        <v>153</v>
-      </c>
       <c r="T35" s="12" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="U35" s="10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="36" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -3700,18 +3695,18 @@
         <v>16</v>
       </c>
       <c r="B36" s="13" t="s">
+        <v>300</v>
+      </c>
+      <c r="C36" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="C36" s="14" t="s">
-        <v>123</v>
-      </c>
       <c r="D36" s="15" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E36" s="13"/>
       <c r="F36" s="9"/>
       <c r="G36" s="16" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H36" s="9">
         <v>34</v>
@@ -3720,7 +3715,7 @@
         <v>20</v>
       </c>
       <c r="J36" s="17" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="K36" s="7" t="s">
         <v>20</v>
@@ -3733,7 +3728,7 @@
         <v>48</v>
       </c>
       <c r="O36" s="9" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="P36" s="9" t="s">
         <v>19</v>
@@ -3742,16 +3737,16 @@
         <v>6</v>
       </c>
       <c r="R36" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="S36" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="S36" s="10" t="s">
-        <v>153</v>
-      </c>
       <c r="T36" s="12" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="U36" s="10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="37" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -3759,18 +3754,18 @@
         <v>16</v>
       </c>
       <c r="B37" s="13" t="s">
+        <v>300</v>
+      </c>
+      <c r="C37" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="C37" s="14" t="s">
-        <v>123</v>
-      </c>
       <c r="D37" s="15" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E37" s="13"/>
       <c r="F37" s="9"/>
       <c r="G37" s="16" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H37" s="9">
         <v>35</v>
@@ -3779,7 +3774,7 @@
         <v>20</v>
       </c>
       <c r="J37" s="17" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="K37" s="7" t="s">
         <v>20</v>
@@ -3792,7 +3787,7 @@
         <v>43</v>
       </c>
       <c r="O37" s="9" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="P37" s="9" t="s">
         <v>19</v>
@@ -3801,16 +3796,16 @@
         <v>6</v>
       </c>
       <c r="R37" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="S37" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="S37" s="10" t="s">
-        <v>153</v>
-      </c>
       <c r="T37" s="12" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="U37" s="10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="38" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3818,18 +3813,18 @@
         <v>16</v>
       </c>
       <c r="B38" s="13" t="s">
+        <v>300</v>
+      </c>
+      <c r="C38" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="C38" s="14" t="s">
-        <v>123</v>
-      </c>
       <c r="D38" s="15" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E38" s="13"/>
       <c r="F38" s="9"/>
       <c r="G38" s="16" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H38" s="9">
         <v>36</v>
@@ -3838,7 +3833,7 @@
         <v>19</v>
       </c>
       <c r="J38" s="17" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="K38" s="7" t="s">
         <v>20</v>
@@ -3851,7 +3846,7 @@
         <v>120</v>
       </c>
       <c r="O38" s="9" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="P38" s="9" t="s">
         <v>19</v>
@@ -3860,16 +3855,16 @@
         <v>6</v>
       </c>
       <c r="R38" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="S38" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="S38" s="10" t="s">
-        <v>153</v>
-      </c>
       <c r="T38" s="12" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="U38" s="10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="39" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -3877,13 +3872,13 @@
         <v>16</v>
       </c>
       <c r="B39" s="13" t="s">
+        <v>300</v>
+      </c>
+      <c r="C39" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="C39" s="14" t="s">
-        <v>123</v>
-      </c>
       <c r="D39" s="15" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E39" s="13" t="s">
         <v>10</v>
@@ -3899,16 +3894,20 @@
         <v>20</v>
       </c>
       <c r="J39" s="17" t="s">
-        <v>284</v>
-      </c>
-      <c r="K39" s="7"/>
+        <v>283</v>
+      </c>
+      <c r="K39" s="7" t="s">
+        <v>20</v>
+      </c>
       <c r="L39" s="6" t="s">
         <v>10</v>
       </c>
       <c r="M39" s="8"/>
       <c r="N39" s="8"/>
       <c r="O39" s="9"/>
-      <c r="P39" s="9"/>
+      <c r="P39" s="9" t="s">
+        <v>19</v>
+      </c>
       <c r="Q39" s="10"/>
       <c r="R39" s="11"/>
       <c r="S39" s="10"/>
@@ -3920,20 +3919,20 @@
         <v>16</v>
       </c>
       <c r="B40" s="13" t="s">
+        <v>300</v>
+      </c>
+      <c r="C40" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="C40" s="14" t="s">
-        <v>123</v>
-      </c>
       <c r="D40" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="E40" s="13" t="s">
         <v>142</v>
-      </c>
-      <c r="E40" s="13" t="s">
-        <v>143</v>
       </c>
       <c r="F40" s="9"/>
       <c r="G40" s="16" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H40" s="9">
         <v>38</v>
@@ -3942,16 +3941,20 @@
         <v>20</v>
       </c>
       <c r="J40" s="30" t="s">
-        <v>212</v>
-      </c>
-      <c r="K40" s="7"/>
-      <c r="L40" s="6"/>
+        <v>211</v>
+      </c>
+      <c r="K40" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L40" s="6" t="s">
+        <v>142</v>
+      </c>
       <c r="M40" s="8"/>
       <c r="N40" s="8" t="s">
         <v>32</v>
       </c>
       <c r="O40" s="27" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="P40" s="9" t="s">
         <v>19</v>
@@ -3960,16 +3963,16 @@
         <v>6</v>
       </c>
       <c r="R40" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="S40" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="S40" s="10" t="s">
-        <v>153</v>
-      </c>
       <c r="T40" s="12" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="U40" s="10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="41" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -3977,18 +3980,18 @@
         <v>16</v>
       </c>
       <c r="B41" s="13" t="s">
+        <v>300</v>
+      </c>
+      <c r="C41" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="C41" s="14" t="s">
-        <v>123</v>
-      </c>
       <c r="D41" s="15" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E41" s="13"/>
       <c r="F41" s="9"/>
       <c r="G41" s="16" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H41" s="9">
         <v>39</v>
@@ -3997,16 +4000,20 @@
         <v>20</v>
       </c>
       <c r="J41" s="30" t="s">
-        <v>211</v>
-      </c>
-      <c r="K41" s="7"/>
-      <c r="L41" s="6"/>
+        <v>210</v>
+      </c>
+      <c r="K41" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L41" s="6" t="s">
+        <v>143</v>
+      </c>
       <c r="M41" s="8"/>
       <c r="N41" s="8" t="s">
         <v>52</v>
       </c>
       <c r="O41" s="28" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="P41" s="9" t="s">
         <v>19</v>
@@ -4015,16 +4022,16 @@
         <v>6</v>
       </c>
       <c r="R41" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="S41" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="S41" s="10" t="s">
-        <v>153</v>
-      </c>
       <c r="T41" s="12" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="U41" s="10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="42" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -5240,16 +5247,7 @@
     <row r="291" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="292" hidden="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <autoFilter ref="A1:U2">
-    <filterColumn colId="12" showButton="0"/>
-  </autoFilter>
   <mergeCells count="20">
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -5264,6 +5262,12 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/fuentes/contenidos/grado06/guion04/ESCALETA_LE_06_04_CO.xlsx
+++ b/fuentes/contenidos/grado06/guion04/ESCALETA_LE_06_04_CO.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Csepulveda\Desktop\GITHUB2015\Lenguaje\fuentes\contenidos\grado06\guion04\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
@@ -1217,34 +1222,16 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1284,6 +1271,24 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1346,7 +1351,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1381,7 +1386,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1592,9 +1597,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U292"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P41" sqref="P41"/>
+      <selection pane="bottomLeft" activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1622,94 +1627,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="25" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="52" t="s">
+      <c r="C1" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="43" t="s">
+      <c r="D1" s="37" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="41" t="s">
+      <c r="E1" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="39" t="s">
+      <c r="F1" s="31" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="45" t="s">
+      <c r="G1" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="39" t="s">
+      <c r="H1" s="31" t="s">
         <v>113</v>
       </c>
-      <c r="I1" s="39" t="s">
+      <c r="I1" s="31" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="49" t="s">
+      <c r="J1" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="47" t="s">
+      <c r="K1" s="41" t="s">
         <v>108</v>
       </c>
-      <c r="L1" s="45" t="s">
+      <c r="L1" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="51" t="s">
+      <c r="M1" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="51"/>
-      <c r="O1" s="31" t="s">
+      <c r="N1" s="45"/>
+      <c r="O1" s="33" t="s">
         <v>109</v>
       </c>
-      <c r="P1" s="31" t="s">
+      <c r="P1" s="33" t="s">
         <v>114</v>
       </c>
-      <c r="Q1" s="33" t="s">
+      <c r="Q1" s="48" t="s">
         <v>85</v>
       </c>
-      <c r="R1" s="37" t="s">
+      <c r="R1" s="52" t="s">
         <v>86</v>
       </c>
-      <c r="S1" s="33" t="s">
+      <c r="S1" s="48" t="s">
         <v>87</v>
       </c>
-      <c r="T1" s="35" t="s">
+      <c r="T1" s="50" t="s">
         <v>88</v>
       </c>
-      <c r="U1" s="33" t="s">
+      <c r="U1" s="48" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:21" s="25" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="44"/>
-      <c r="B2" s="42"/>
-      <c r="C2" s="53"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="48"/>
-      <c r="L2" s="46"/>
+      <c r="A2" s="38"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="42"/>
+      <c r="L2" s="40"/>
       <c r="M2" s="26" t="s">
         <v>90</v>
       </c>
       <c r="N2" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="O2" s="32"/>
-      <c r="P2" s="32"/>
-      <c r="Q2" s="34"/>
-      <c r="R2" s="38"/>
-      <c r="S2" s="34"/>
-      <c r="T2" s="36"/>
-      <c r="U2" s="34"/>
+      <c r="O2" s="34"/>
+      <c r="P2" s="34"/>
+      <c r="Q2" s="49"/>
+      <c r="R2" s="53"/>
+      <c r="S2" s="49"/>
+      <c r="T2" s="51"/>
+      <c r="U2" s="49"/>
     </row>
     <row r="3" spans="1:21" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -5248,6 +5253,12 @@
     <row r="292" hidden="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -5262,12 +5273,6 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/fuentes/contenidos/grado06/guion04/ESCALETA_LE_06_04_CO.xlsx
+++ b/fuentes/contenidos/grado06/guion04/ESCALETA_LE_06_04_CO.xlsx
@@ -1222,16 +1222,34 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1271,24 +1289,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1599,7 +1599,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G8" sqref="G8"/>
+      <selection pane="bottomLeft" activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1627,94 +1627,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="25" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="46" t="s">
+      <c r="C1" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="37" t="s">
+      <c r="D1" s="43" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="35" t="s">
+      <c r="E1" s="41" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="31" t="s">
+      <c r="F1" s="39" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="39" t="s">
+      <c r="G1" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="31" t="s">
+      <c r="H1" s="39" t="s">
         <v>113</v>
       </c>
-      <c r="I1" s="31" t="s">
+      <c r="I1" s="39" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="43" t="s">
+      <c r="J1" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="41" t="s">
+      <c r="K1" s="47" t="s">
         <v>108</v>
       </c>
-      <c r="L1" s="39" t="s">
+      <c r="L1" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="45" t="s">
+      <c r="M1" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="45"/>
-      <c r="O1" s="33" t="s">
+      <c r="N1" s="51"/>
+      <c r="O1" s="31" t="s">
         <v>109</v>
       </c>
-      <c r="P1" s="33" t="s">
+      <c r="P1" s="31" t="s">
         <v>114</v>
       </c>
-      <c r="Q1" s="48" t="s">
+      <c r="Q1" s="33" t="s">
         <v>85</v>
       </c>
-      <c r="R1" s="52" t="s">
+      <c r="R1" s="37" t="s">
         <v>86</v>
       </c>
-      <c r="S1" s="48" t="s">
+      <c r="S1" s="33" t="s">
         <v>87</v>
       </c>
-      <c r="T1" s="50" t="s">
+      <c r="T1" s="35" t="s">
         <v>88</v>
       </c>
-      <c r="U1" s="48" t="s">
+      <c r="U1" s="33" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:21" s="25" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="38"/>
-      <c r="B2" s="36"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="42"/>
-      <c r="L2" s="40"/>
+      <c r="A2" s="44"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="48"/>
+      <c r="L2" s="46"/>
       <c r="M2" s="26" t="s">
         <v>90</v>
       </c>
       <c r="N2" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="O2" s="34"/>
-      <c r="P2" s="34"/>
-      <c r="Q2" s="49"/>
-      <c r="R2" s="53"/>
-      <c r="S2" s="49"/>
-      <c r="T2" s="51"/>
-      <c r="U2" s="49"/>
+      <c r="O2" s="32"/>
+      <c r="P2" s="32"/>
+      <c r="Q2" s="34"/>
+      <c r="R2" s="38"/>
+      <c r="S2" s="34"/>
+      <c r="T2" s="36"/>
+      <c r="U2" s="34"/>
     </row>
     <row r="3" spans="1:21" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -5253,12 +5253,6 @@
     <row r="292" hidden="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -5273,6 +5267,12 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
